--- a/biology/Médecine/Henry_Maudsley/Henry_Maudsley.xlsx
+++ b/biology/Médecine/Henry_Maudsley/Henry_Maudsley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Maudsley, né le 5 février 1835 et mort le 23 janvier 1918, est un précurseur de la psychiatrie britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1835 à Rome, petit hameau proche de Giggleswick dans le Yorkshire du Nord, il fit ses études à l'University College de Londres où il obtint le titre de docteur en médecine en 1857; il prit alors un poste à l'asile de Wakefield. À 23 ans, il obtint le grade de super-intendant médical au Cheadle Royal Hospital de Cheadle Hulme. Il revint à Londres en 1862 et y exerça comme professeur de médecine légale de 1869 à 1879. De 1866 à 1874, il dirigea l'asile privé de John Conolly à Hanwell (Londres). Il avait épousé Ann Connoly, plus jeune fille de John Conolly.
 De 1862 à 1878, il fut aussi rédacteur en chef du Journal of Mental Science, périodique de l'Association Médico-Psychiatrique britannique qui paraît aujourd'hui sous le titre de British Journal of Psychiatry. Maundsley travailla à étendre les centres d'intérêt de la publication à la psychologie et à la philosophie.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1867	 The Physiology and Pathology of Mind. Macmillan
 1870	Body and Mind: An Inquiry into their Connection and Mutual Influence. Macmillan
